--- a/WaterNodes.xlsx
+++ b/WaterNodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wany105\OneDrive - Vanderbilt\Research\ShelbyCounty_DataRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{417657BB-25D1-4083-BB04-6535C553029E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D5AF443E-6525-43E6-BB6F-0B4D003505E1}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{417657BB-25D1-4083-BB04-6535C553029E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C7835C0-2378-412D-98A1-F7AD4D59B05B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{0A4BDA9F-39C7-4AB9-B776-00E6F30BC16F}"/>
   </bookViews>
@@ -44,19 +44,19 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Storage Tanks</t>
-  </si>
-  <si>
-    <t>Pump Stations</t>
-  </si>
-  <si>
-    <t>Delivery Nodes</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>Storage tank</t>
+  </si>
+  <si>
+    <t>Deliver Station</t>
+  </si>
+  <si>
+    <t>Pumping station</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>767942.72979999997</v>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>737315.4449</v>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>814585.91139999998</v>
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>763826.84790000005</v>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>792308.81189999997</v>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>767588.78330000001</v>
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>815036.38520000002</v>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>786600.39850000001</v>
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>866659.48080000002</v>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>827331.96790000005</v>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>876852.57460000005</v>
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>842660.15280000004</v>
@@ -688,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>762061.47019999998</v>
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>854574.69660000002</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>828599.31050000002</v>
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>792636.87789999996</v>
@@ -768,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>857983.90139999997</v>
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>792932.14989999996</v>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>777049.29680000001</v>
@@ -828,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>762264.58299999998</v>
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>728765.55550000002</v>
@@ -868,7 +868,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>751845.40789999999</v>
@@ -888,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>776241.78859999997</v>
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>877313.946</v>
@@ -928,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>813336.71799999999</v>
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>851513.50360000005</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>765511.66370000003</v>
@@ -988,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>836781.1298</v>
@@ -1008,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>762871.29269999999</v>
@@ -1028,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
         <v>848784.90800000005</v>
@@ -1048,7 +1048,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>787674.70539999998</v>
@@ -1068,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>875999.15500000003</v>
@@ -1088,7 +1088,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <v>769326.73060000001</v>
@@ -1108,7 +1108,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>780618.61750000005</v>
@@ -1128,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>819497.19949999999</v>
@@ -1150,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>852959.86609999998</v>
@@ -1172,7 +1172,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>769212.21970000002</v>
@@ -1194,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>845497.14489999996</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <v>794669.33770000003</v>
@@ -1238,7 +1238,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
         <v>833635.82510000002</v>
@@ -1260,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
         <v>847772.82239999995</v>
@@ -1282,7 +1282,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>828752.49</v>
@@ -1304,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>788817.47409999999</v>
@@ -1326,7 +1326,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>801845.29579999996</v>
@@ -1348,7 +1348,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>791127.87560000003</v>
@@ -1370,7 +1370,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>801892.45940000005</v>
@@ -1392,7 +1392,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>790584.65229999996</v>
@@ -1414,7 +1414,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>803131.2548</v>
@@ -1436,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>874275.49899999995</v>
